--- a/Enova/Mal for prosjektregnskap_Oppgradering.xlsx
+++ b/Enova/Mal for prosjektregnskap_Oppgradering.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enovasf-my.sharepoint.com/personal/tove_krogstad_johnsen_enova_no/Documents/Mellomlagring/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alfalavalonline-my.sharepoint.com/personal/kska_framo_no/Documents/Documents/GitHub/klubben/Enova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4518F689-248E-4B3C-BAFE-0ACE033597B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{4518F689-248E-4B3C-BAFE-0ACE033597B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D68073EE-4593-45FA-B960-52C775E65A90}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22995" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
-    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
-    <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Utstedt av</t>
   </si>
@@ -33,12 +44,6 @@
     <t>Evt. kommentar</t>
   </si>
   <si>
-    <t>Beløp eks. mva</t>
-  </si>
-  <si>
-    <t>Eksempel:</t>
-  </si>
-  <si>
     <t>Merknader:</t>
   </si>
   <si>
@@ -57,33 +62,6 @@
     <t>Tilskuddsmottaker (navn):</t>
   </si>
   <si>
-    <t>Isolering og tetting av tak, vegger og gulv</t>
-  </si>
-  <si>
-    <t>Annet</t>
-  </si>
-  <si>
-    <t>Grunnarbeid/isolering av grunnmur</t>
-  </si>
-  <si>
-    <t>Faktura med flere poster (ref tilbud/kontrakt)</t>
-  </si>
-  <si>
-    <t>Vinduer</t>
-  </si>
-  <si>
-    <t>Vindusfabrikken AS</t>
-  </si>
-  <si>
-    <t>Byggmester AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delfaktura 4 (isolering, tetting og kledning yttervegger i følge tilbud) </t>
-  </si>
-  <si>
-    <t>25% av totalsum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Totalkostnad inkl. mva </t>
   </si>
   <si>
@@ -112,6 +90,48 @@
   </si>
   <si>
     <t>Kostnadsoppstilling (fakturaoversikt)</t>
+  </si>
+  <si>
+    <t>Byggmester Olav Dalland</t>
+  </si>
+  <si>
+    <t>Leigland Bygg As</t>
+  </si>
+  <si>
+    <t>I. Bjørø Kobber og Blikk AS</t>
+  </si>
+  <si>
+    <t>Har utelatt små fakturer, slik som avfallshåndtering, kjøp av teip osv som byggemesterene har bedt oss om å skaffe</t>
+  </si>
+  <si>
+    <t>Noe Isolasjon har vi skaffet frå COOP OBS på tilbud, så viss antall kvadrat meter på isolasjon i fakturer over og enova beregningen ikkje går opp er det grunna dette og at vi kunne gjenbruke noe gammel isolasjon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I teksten på fakturaene frå Bjørø Kobber og Blikk er prosjekt navnet tilbygg, dette er svært misvisende, og det reflekterer det navnet dei ga prosjektet då dei flyttet vinduet på sørsiden ut av veggen som eit fritt hengende vindu. Ta eventuelt direkte kontakt med ibjørø kobber og blikk  viss dei skal endre prosjektnavn på faktura, linjene på fakturaene stemmer med det som er gjort. </t>
+  </si>
+  <si>
+    <t>Byggmester Olav Dalland har fått Agnar Skåtun og Leigland Bygg til å fakturere oss direkte</t>
+  </si>
+  <si>
+    <t>Materialer</t>
+  </si>
+  <si>
+    <t>I denne posten ligger også det ein del materialer som egentlig hører til under Materialer</t>
+  </si>
+  <si>
+    <t>Kim Skåtun</t>
+  </si>
+  <si>
+    <t>Agnar Skåtun AS</t>
+  </si>
+  <si>
+    <t>Noe materialer</t>
+  </si>
+  <si>
+    <t>Vinduer og arbeid står for ca 80% av totalsummen</t>
+  </si>
+  <si>
+    <t>Det gjenstår noe utvendig kledning/listing/kistekledning, men dette påvirker ikkje energivurderingen, og siden summen er høy nok, sender vi den inn allerede nå.</t>
   </si>
 </sst>
 </file>
@@ -229,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -306,52 +326,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -360,36 +409,49 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="8" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,9 +527,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -505,9 +567,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,26 +602,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,26 +637,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -785,16 +813,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -805,473 +833,708 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="16">
+        <v>144977</v>
+      </c>
+      <c r="C12" s="17">
+        <v>44948</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1333</v>
+      </c>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16">
+        <v>145300</v>
+      </c>
+      <c r="C13" s="17">
+        <v>44967</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1945</v>
+      </c>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16">
+        <v>145675</v>
+      </c>
+      <c r="C14" s="17">
+        <v>44995</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1533</v>
+      </c>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16">
+        <v>146241</v>
+      </c>
+      <c r="C15" s="17">
+        <v>45026</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="19">
+        <v>5180</v>
+      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16">
+        <v>148296</v>
+      </c>
+      <c r="C16" s="17">
+        <v>42939</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="19">
+        <v>351</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16">
+        <v>148521</v>
+      </c>
+      <c r="C17" s="17">
+        <v>45527</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1535</v>
+      </c>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16">
+        <v>148644</v>
+      </c>
+      <c r="C18" s="17">
+        <v>48083</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="19">
+        <v>490</v>
+      </c>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16">
+        <v>148720</v>
+      </c>
+      <c r="C19" s="17">
+        <v>45025</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="19">
+        <v>678</v>
+      </c>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16">
+        <v>148802</v>
+      </c>
+      <c r="C20" s="17">
+        <v>45178</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="19">
+        <v>183</v>
+      </c>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16">
+        <v>149470</v>
+      </c>
+      <c r="C21" s="17">
+        <v>45270</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="19">
+        <v>373</v>
+      </c>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16">
+        <v>146930</v>
+      </c>
+      <c r="C22" s="17">
+        <v>45064</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="19">
+        <v>3268</v>
+      </c>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16">
+        <v>153510</v>
+      </c>
+      <c r="C23" s="17">
+        <v>45082</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="19">
+        <v>2887</v>
+      </c>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16">
+        <v>144674</v>
+      </c>
+      <c r="C24" s="17">
+        <v>45052</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="19">
+        <v>792</v>
+      </c>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16">
+        <v>153510</v>
+      </c>
+      <c r="C25" s="17">
+        <v>45458</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="19">
+        <v>2887</v>
+      </c>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16">
+        <v>155904</v>
+      </c>
+      <c r="C26" s="17">
+        <v>45600</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="19">
+        <v>1304</v>
+      </c>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16">
+        <v>152455</v>
+      </c>
+      <c r="C27" s="17">
+        <v>45404</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1256</v>
+      </c>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="16">
+        <v>1028607</v>
+      </c>
+      <c r="C29" s="17">
+        <v>45058</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="19">
+        <v>82199</v>
+      </c>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16">
+        <v>1028421</v>
+      </c>
+      <c r="C30" s="17">
+        <v>44931</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="19">
+        <v>26289</v>
+      </c>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16">
+        <v>1151</v>
+      </c>
+      <c r="C31" s="17">
+        <v>45128</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="19">
+        <v>30736</v>
+      </c>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16">
+        <v>1028608</v>
+      </c>
+      <c r="C32" s="17">
+        <v>45058</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="19">
+        <v>5506</v>
+      </c>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16">
+        <v>13250</v>
+      </c>
+      <c r="C33" s="17">
+        <v>45626</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="19">
+        <v>42594.33</v>
+      </c>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16">
+        <v>13236</v>
+      </c>
+      <c r="C34" s="17">
+        <v>45656</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="19">
+        <v>61144.36</v>
+      </c>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="16">
+        <v>605</v>
+      </c>
+      <c r="C36" s="17">
+        <v>44979</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="19">
+        <v>14950</v>
+      </c>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16">
+        <v>607</v>
+      </c>
+      <c r="C37" s="17">
+        <v>45165</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="19">
+        <v>42900</v>
+      </c>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16">
+        <v>609</v>
+      </c>
+      <c r="C38" s="17">
+        <v>45195</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="19">
+        <v>8450</v>
+      </c>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16">
+        <v>617</v>
+      </c>
+      <c r="C39" s="17">
+        <v>45631</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="19">
+        <v>24000</v>
+      </c>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16">
+        <v>11542</v>
+      </c>
+      <c r="C40" s="17">
+        <v>44972</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="19">
+        <v>20055.12</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16">
+        <v>13177</v>
+      </c>
+      <c r="C41" s="17">
+        <v>45590</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="19">
+        <v>115580.57</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="23">
+        <f>SUM(E12:E41)</f>
+        <v>500399.38</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="22"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="35"/>
+    </row>
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="41"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="41"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27">
-        <v>0</v>
-      </c>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27">
-        <v>0</v>
-      </c>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27">
-        <v>0</v>
-      </c>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27">
-        <v>0</v>
-      </c>
-      <c r="F15" s="28"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27">
-        <v>0</v>
-      </c>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27">
-        <v>0</v>
-      </c>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27">
-        <v>0</v>
-      </c>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27">
-        <v>0</v>
-      </c>
-      <c r="F19" s="28"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27">
-        <v>0</v>
-      </c>
-      <c r="F20" s="28"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27">
-        <v>0</v>
-      </c>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27">
-        <v>0</v>
-      </c>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="35"/>
+    </row>
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="38"/>
+    </row>
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27">
-        <v>0</v>
-      </c>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27">
-        <v>0</v>
-      </c>
-      <c r="F24" s="28"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27">
-        <v>0</v>
-      </c>
-      <c r="F25" s="28"/>
-    </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27">
-        <v>0</v>
-      </c>
-      <c r="F26" s="28"/>
-    </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="28"/>
-    </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27">
-        <v>0</v>
-      </c>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27">
-        <v>0</v>
-      </c>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27">
-        <v>0</v>
-      </c>
-      <c r="F30" s="28"/>
-    </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27">
-        <v>0</v>
-      </c>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27">
-        <v>0</v>
-      </c>
-      <c r="F32" s="28"/>
-    </row>
-    <row r="33" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27">
-        <v>0</v>
-      </c>
-      <c r="F33" s="28"/>
-    </row>
-    <row r="34" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="31">
-        <f>SUM(E12:E33)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="35">
-        <v>8459</v>
-      </c>
-      <c r="C37" s="36">
-        <v>43327</v>
-      </c>
-      <c r="D37" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="37">
-        <v>110000</v>
-      </c>
-      <c r="F37" s="37"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="38">
-        <v>15901</v>
-      </c>
-      <c r="C38" s="36">
-        <v>43358</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="37">
-        <v>300000</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="35"/>
+    </row>
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="35"/>
+    </row>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="35"/>
+    </row>
+    <row r="57" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C34:D34"/>
+  <mergeCells count="13">
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="A2:E2"/>
@@ -1283,28 +1546,4 @@
   <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Enova/Mal for prosjektregnskap_Oppgradering.xlsx
+++ b/Enova/Mal for prosjektregnskap_Oppgradering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alfalavalonline-my.sharepoint.com/personal/kska_framo_no/Documents/Documents/GitHub/klubben/Enova/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{4518F689-248E-4B3C-BAFE-0ACE033597B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D68073EE-4593-45FA-B960-52C775E65A90}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="8_{4518F689-248E-4B3C-BAFE-0ACE033597B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F3BFCA4-7A61-43D7-9AB0-C3CEE2262430}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
   <si>
     <t>Utstedt av</t>
   </si>
@@ -116,22 +116,28 @@
     <t>Materialer</t>
   </si>
   <si>
-    <t>I denne posten ligger også det ein del materialer som egentlig hører til under Materialer</t>
-  </si>
-  <si>
     <t>Kim Skåtun</t>
   </si>
   <si>
     <t>Agnar Skåtun AS</t>
   </si>
   <si>
-    <t>Noe materialer</t>
-  </si>
-  <si>
     <t>Vinduer og arbeid står for ca 80% av totalsummen</t>
   </si>
   <si>
     <t>Det gjenstår noe utvendig kledning/listing/kistekledning, men dette påvirker ikkje energivurderingen, og siden summen er høy nok, sender vi den inn allerede nå.</t>
+  </si>
+  <si>
+    <t>Org nummer</t>
+  </si>
+  <si>
+    <t>Kundenummer</t>
+  </si>
+  <si>
+    <t>510 tatt ut</t>
+  </si>
+  <si>
+    <t>grunnarbeid</t>
   </si>
 </sst>
 </file>
@@ -142,7 +148,7 @@
     <numFmt numFmtId="164" formatCode="_ &quot;kr&quot;\ * #,##0.00_ ;_ &quot;kr&quot;\ * \-#,##0.00_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ &quot;kr&quot;\ * #,##0_ ;_ &quot;kr&quot;\ * \-#,##0_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -216,8 +222,29 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +275,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -363,12 +405,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -408,11 +480,33 @@
     <xf numFmtId="165" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="8" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" xfId="4"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -448,12 +542,306 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="8" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="11" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="5" builtinId="27"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ &quot;kr&quot;\ * #,##0_ ;_ &quot;kr&quot;\ * \-#,##0_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_ &quot;kr&quot;\ * #,##0_ ;_ &quot;kr&quot;\ * \-#,##0_ ;_ &quot;kr&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -524,6 +912,37 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{63C94FD9-7C5B-49AF-B054-0DD98F197FFF}" name="Table1" displayName="Table1" ref="A11:H46" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="8">
+  <autoFilter ref="A11:H46" xr:uid="{63C94FD9-7C5B-49AF-B054-0DD98F197FFF}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Arbeidskostnader"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:H33">
+    <sortCondition ref="C11:C46"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D3A9EC3E-D3B6-4EDF-B8B6-ABD4D81C6924}" name="Kostnadspost" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{AD42B91A-3D36-4255-A0E5-4F46F80DBDE3}" name="Faktura nr." dataDxfId="6" dataCellStyle="Good"/>
+    <tableColumn id="3" xr3:uid="{F5595164-CFD6-4768-9B53-47C1FA8D8E1A}" name="Faktura dato" dataDxfId="5" dataCellStyle="Bad"/>
+    <tableColumn id="4" xr3:uid="{F66B9C8C-3794-4573-9BE3-FECE3CEB74D9}" name="Utstedt av" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{ED25D69D-0E54-4AA9-B833-B853FCE191F4}" name="Beløp inkl. mva" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{BF36FCC8-8CB4-46D0-8EFE-3FC174EC2E4E}" name="Evt. kommentar" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{F0BE0F2B-57F9-4BF2-82BE-1A48DEC12CF1}" name="Org nummer" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{09B2499E-0DED-4122-96F5-CA0FBFB81F1B}" name="Kundenummer"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -816,43 +1235,47 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="91.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -861,8 +1284,9 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -871,69 +1295,76 @@
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="38"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="B7" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="38" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="38"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
       <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="51" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -951,590 +1382,840 @@
       <c r="F11" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="16">
-        <v>144977</v>
-      </c>
-      <c r="C12" s="17">
-        <v>44948</v>
+      <c r="B12" s="33">
+        <v>145300</v>
+      </c>
+      <c r="C12" s="50">
+        <v>44957</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="19">
-        <v>1333</v>
+        <v>1945</v>
       </c>
       <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16">
-        <v>145300</v>
-      </c>
-      <c r="C13" s="17">
-        <v>44967</v>
+      <c r="G12" s="29">
+        <v>982577608</v>
+      </c>
+      <c r="H12">
+        <v>12788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="33">
+        <v>11542</v>
+      </c>
+      <c r="C13" s="50">
+        <v>44957</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E13" s="19">
-        <v>1945</v>
-      </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16">
+        <v>7461.369999999999</v>
+      </c>
+      <c r="F13" s="31">
+        <f>E13/(E13+E31)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="29">
+        <v>921524005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="33">
         <v>145675</v>
       </c>
-      <c r="C14" s="17">
-        <v>44995</v>
+      <c r="C14" s="50">
+        <v>44985</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="19">
         <v>1533</v>
       </c>
       <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16">
+      <c r="G14" s="29">
+        <v>982577608</v>
+      </c>
+      <c r="H14">
+        <v>12788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="33">
         <v>146241</v>
       </c>
-      <c r="C15" s="17">
-        <v>45026</v>
+      <c r="C15" s="50">
+        <v>45016</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="19">
         <v>5180</v>
       </c>
       <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16">
+      <c r="G15" s="29">
+        <v>982577608</v>
+      </c>
+      <c r="H15">
+        <v>12788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="33">
+        <v>144674</v>
+      </c>
+      <c r="C16" s="50">
+        <v>45042</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="19">
+        <v>792</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="29">
+        <v>982577608</v>
+      </c>
+      <c r="H16">
+        <v>12788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="33">
+        <v>1028608</v>
+      </c>
+      <c r="C17" s="50">
+        <v>45044</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="19">
+        <v>5506</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="29">
+        <v>960068424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="33">
+        <v>146930</v>
+      </c>
+      <c r="C18" s="50">
+        <v>45054</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="19">
+        <v>3268</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="29">
+        <v>982577608</v>
+      </c>
+      <c r="H18">
+        <v>12788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="33">
+        <v>1028607</v>
+      </c>
+      <c r="C19" s="50">
+        <v>45058</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="19">
+        <v>25512</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="29">
+        <v>960068424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="33">
         <v>148296</v>
       </c>
-      <c r="C16" s="17">
-        <v>42939</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="C20" s="50">
+        <v>45114</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="19">
         <v>351</v>
       </c>
-      <c r="F16" s="20"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16">
+      <c r="F20" s="20"/>
+      <c r="G20" s="29">
+        <v>982577608</v>
+      </c>
+      <c r="H20">
+        <v>12788</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="53">
+        <v>1151</v>
+      </c>
+      <c r="C21" s="50">
+        <v>45114</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="19">
+        <v>10423.5</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="33">
+        <v>148644</v>
+      </c>
+      <c r="C22" s="50">
+        <v>45159</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="19">
+        <v>490</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="29">
+        <v>982577608</v>
+      </c>
+      <c r="H22">
+        <v>12788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="33">
+        <v>148720</v>
+      </c>
+      <c r="C23" s="50">
+        <v>45163</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="19">
+        <v>678</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="29">
+        <v>982577608</v>
+      </c>
+      <c r="H23">
+        <v>12788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="55">
+        <v>148802</v>
+      </c>
+      <c r="C24" s="50">
+        <v>45168</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="19">
+        <v>183</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="29">
+        <v>982577608</v>
+      </c>
+      <c r="H24">
+        <v>12788</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="55">
+        <v>149470</v>
+      </c>
+      <c r="C25" s="49">
+        <v>45201</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="19">
+        <v>373</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="29">
+        <v>982577608</v>
+      </c>
+      <c r="H25">
+        <v>12788</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="33">
         <v>148521</v>
       </c>
-      <c r="C17" s="17">
-        <v>45527</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="19">
+      <c r="C26" s="50">
+        <v>45518</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="19">
         <v>1535</v>
       </c>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16">
-        <v>148644</v>
-      </c>
-      <c r="C18" s="17">
-        <v>48083</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="19">
-        <v>490</v>
-      </c>
-      <c r="F18" s="20"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16">
-        <v>148720</v>
-      </c>
-      <c r="C19" s="17">
-        <v>45025</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="19">
-        <v>678</v>
-      </c>
-      <c r="F19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16">
-        <v>148802</v>
-      </c>
-      <c r="C20" s="17">
-        <v>45178</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="19">
-        <v>183</v>
-      </c>
-      <c r="F20" s="20"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16">
-        <v>149470</v>
-      </c>
-      <c r="C21" s="17">
-        <v>45270</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="19">
-        <v>373</v>
-      </c>
-      <c r="F21" s="20"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16">
-        <v>146930</v>
-      </c>
-      <c r="C22" s="17">
-        <v>45064</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="19">
-        <v>3268</v>
-      </c>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16">
-        <v>153510</v>
-      </c>
-      <c r="C23" s="17">
-        <v>45082</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="19">
-        <v>2887</v>
-      </c>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16">
-        <v>144674</v>
-      </c>
-      <c r="C24" s="17">
-        <v>45052</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="19">
-        <v>792</v>
-      </c>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16">
-        <v>153510</v>
-      </c>
-      <c r="C25" s="17">
-        <v>45458</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="19">
-        <v>2887</v>
-      </c>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16">
-        <v>155904</v>
-      </c>
-      <c r="C26" s="17">
-        <v>45600</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="19">
-        <v>1304</v>
-      </c>
       <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16">
-        <v>152455</v>
-      </c>
-      <c r="C27" s="17">
-        <v>45404</v>
+      <c r="G26" s="29">
+        <v>982577608</v>
+      </c>
+      <c r="H26">
+        <v>12788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="33">
+        <v>13177</v>
+      </c>
+      <c r="C27" s="50">
+        <v>45565</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E27" s="19">
-        <v>1256</v>
-      </c>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
+        <v>52436.820000000007</v>
+      </c>
+      <c r="F27" s="31">
+        <f>E27/(E27+E45)</f>
+        <v>0.80634107928009857</v>
+      </c>
+      <c r="G27" s="29">
+        <v>921524005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="49"/>
       <c r="D28" s="18"/>
       <c r="E28" s="19"/>
       <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="1:12" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="33"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="29"/>
+      <c r="H29">
+        <v>12788</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="29"/>
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="29"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B34" s="33">
         <v>1028607</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C34" s="50">
         <v>45058</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D34" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="19">
-        <v>82199</v>
-      </c>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16">
-        <v>1028421</v>
-      </c>
-      <c r="C30" s="17">
-        <v>44931</v>
-      </c>
-      <c r="D30" s="18" t="s">
+      <c r="E34" s="19">
+        <v>56687</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="29">
+        <v>960068424</v>
+      </c>
+      <c r="H34">
+        <v>22174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="34">
+        <v>1151</v>
+      </c>
+      <c r="C35" s="50">
+        <v>45114</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="19">
-        <v>26289</v>
-      </c>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16">
-        <v>1151</v>
-      </c>
-      <c r="C31" s="17">
-        <v>45128</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="19">
-        <v>30736</v>
-      </c>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16">
-        <v>1028608</v>
-      </c>
-      <c r="C32" s="17">
-        <v>45058</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="19">
-        <v>5506</v>
-      </c>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16">
+      <c r="E35" s="19">
+        <v>20311.5</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="29">
+        <v>960068424</v>
+      </c>
+      <c r="H35">
+        <v>22174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="33">
         <v>13250</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C37" s="50">
+        <v>45596</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="19">
+        <v>42594.33</v>
+      </c>
+      <c r="F37" s="20"/>
+      <c r="G37" s="29">
+        <v>921524005</v>
+      </c>
+      <c r="H37">
+        <v>11267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="33">
+        <v>13236</v>
+      </c>
+      <c r="C38" s="50">
         <v>45626</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D38" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="19">
-        <v>42594.33</v>
-      </c>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16">
-        <v>13236</v>
-      </c>
-      <c r="C34" s="17">
-        <v>45656</v>
-      </c>
-      <c r="D34" s="18" t="s">
+      <c r="E38" s="19">
+        <v>61144.36</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="29">
+        <v>921524005</v>
+      </c>
+      <c r="H38">
+        <v>11267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="33">
+        <v>605</v>
+      </c>
+      <c r="C40" s="50">
+        <v>44979</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="19">
+        <v>14950</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="G40" s="29">
+        <v>962126529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="33">
+        <v>607</v>
+      </c>
+      <c r="C41" s="50">
+        <v>45165</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="19">
+        <v>42900</v>
+      </c>
+      <c r="F41" s="20"/>
+      <c r="G41" s="29">
+        <v>926126529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="33">
+        <v>609</v>
+      </c>
+      <c r="C42" s="50">
+        <v>45195</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="19">
+        <v>8450</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="29">
+        <v>926126529</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="33">
+        <v>617</v>
+      </c>
+      <c r="C43" s="50">
+        <v>45631</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="19">
+        <v>24000</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="29">
+        <v>926126529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="33"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="33">
+        <v>11542</v>
+      </c>
+      <c r="C45" s="50">
+        <v>44957</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="19">
-        <v>61144.36</v>
-      </c>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="20"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+      <c r="E45" s="19">
+        <v>12593.75</v>
+      </c>
+      <c r="F45" s="30">
+        <f>E45/(E45+E27)</f>
+        <v>0.1936589207199014</v>
+      </c>
+      <c r="G45" s="29">
+        <v>921524005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="16">
-        <v>605</v>
-      </c>
-      <c r="C36" s="17">
-        <v>44979</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="19">
-        <v>14950</v>
-      </c>
-      <c r="F36" s="20"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16">
-        <v>607</v>
-      </c>
-      <c r="C37" s="17">
-        <v>45165</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="19">
-        <v>42900</v>
-      </c>
-      <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16">
-        <v>609</v>
-      </c>
-      <c r="C38" s="17">
-        <v>45195</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="19">
-        <v>8450</v>
-      </c>
-      <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16">
-        <v>617</v>
-      </c>
-      <c r="C39" s="17">
-        <v>45631</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="19">
-        <v>24000</v>
-      </c>
-      <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16">
-        <v>11542</v>
-      </c>
-      <c r="C40" s="17">
-        <v>44972</v>
-      </c>
-      <c r="D40" s="18" t="s">
+      <c r="B46" s="33">
+        <v>13177</v>
+      </c>
+      <c r="C46" s="50">
+        <v>45565</v>
+      </c>
+      <c r="D46" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="19">
-        <v>20055.12</v>
-      </c>
-      <c r="F40" s="20" t="s">
+      <c r="E46" s="20">
+        <v>63143.75</v>
+      </c>
+      <c r="F46" s="30">
+        <f>E46/(E46+E28)</f>
+        <v>1</v>
+      </c>
+      <c r="G46" s="29">
+        <v>921524005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="37"/>
+      <c r="E47" s="22">
+        <f>SUM(E12:E46)</f>
+        <v>464442.38</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="25"/>
+    </row>
+    <row r="48" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="26"/>
+      <c r="K49" s="35"/>
+    </row>
+    <row r="50" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="27"/>
+    </row>
+    <row r="51" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="27"/>
+    </row>
+    <row r="52" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="28"/>
+    </row>
+    <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="27"/>
+    </row>
+    <row r="54" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="27"/>
+    </row>
+    <row r="55" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="43" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16">
-        <v>13177</v>
-      </c>
-      <c r="C41" s="17">
-        <v>45590</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="19">
-        <v>115580.57</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="23">
-        <f>SUM(E12:E41)</f>
-        <v>500399.38</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-    </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="35"/>
-    </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="35"/>
-    </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="38"/>
-    </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="35"/>
-    </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="35"/>
-    </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="35"/>
-    </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-    </row>
-    <row r="58" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="27"/>
+    </row>
+    <row r="62" spans="1:11" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A55:F55"/>
     <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="A2:E2"/>
@@ -1545,5 +2226,8 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>